--- a/data/pca/factorExposure/factorExposure_2010-02-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-02-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +714,33 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.0151516718195434</v>
+        <v>0.01702809946792406</v>
       </c>
       <c r="C2">
-        <v>-0.000862765116052703</v>
+        <v>-0.000935723970044236</v>
       </c>
       <c r="D2">
-        <v>0.004384766418099863</v>
+        <v>-0.006978942812276599</v>
       </c>
       <c r="E2">
-        <v>-0.0118031168012041</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.0001144265242443985</v>
+      </c>
+      <c r="F2">
+        <v>-0.00888983545884036</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +754,33 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1286016944052602</v>
+        <v>0.09380816038700503</v>
       </c>
       <c r="C4">
-        <v>0.04991846497009874</v>
+        <v>-0.01555520194213894</v>
       </c>
       <c r="D4">
-        <v>0.025667780633266</v>
+        <v>-0.08328940338096653</v>
       </c>
       <c r="E4">
-        <v>0.01120212277458475</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02934644256974579</v>
+      </c>
+      <c r="F4">
+        <v>0.028239000575278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +794,233 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1184637590116906</v>
+        <v>0.1564380198229529</v>
       </c>
       <c r="C6">
-        <v>-0.02112420215607244</v>
+        <v>-0.02486911084818415</v>
       </c>
       <c r="D6">
-        <v>0.01758084263798839</v>
+        <v>0.02264089431298281</v>
       </c>
       <c r="E6">
-        <v>-0.021345549963573</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01118165496915915</v>
+      </c>
+      <c r="F6">
+        <v>0.05193613763341188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07347378333720228</v>
+        <v>0.05987392802425918</v>
       </c>
       <c r="C7">
-        <v>0.02903995147898712</v>
+        <v>0.0009534367667331572</v>
       </c>
       <c r="D7">
-        <v>0.03963148008018171</v>
+        <v>-0.05127360191727635</v>
       </c>
       <c r="E7">
-        <v>-0.03534632479028345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.01344271965946193</v>
+      </c>
+      <c r="F7">
+        <v>0.04391891231191086</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.0547426565954914</v>
+        <v>0.05867865005888483</v>
       </c>
       <c r="C8">
-        <v>0.006483238040351854</v>
+        <v>0.01358317557620468</v>
       </c>
       <c r="D8">
-        <v>0.0138583953395468</v>
+        <v>-0.03144959496956686</v>
       </c>
       <c r="E8">
-        <v>-0.02171145301226559</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01578684757613232</v>
+      </c>
+      <c r="F8">
+        <v>-0.03200905278903154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.1000732270689255</v>
+        <v>0.07189079996409234</v>
       </c>
       <c r="C9">
-        <v>0.05202922543009605</v>
+        <v>-0.01147383917464627</v>
       </c>
       <c r="D9">
-        <v>0.006968983202595514</v>
+        <v>-0.08412725640513435</v>
       </c>
       <c r="E9">
-        <v>-0.006050012590968454</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.0240845017841572</v>
+      </c>
+      <c r="F9">
+        <v>0.04787406571041018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.05714867447259638</v>
+        <v>0.09533831974989085</v>
       </c>
       <c r="C10">
-        <v>-0.1900280722345956</v>
+        <v>-0.01871778062581939</v>
       </c>
       <c r="D10">
-        <v>-0.03793857099622668</v>
+        <v>0.1702521853027558</v>
       </c>
       <c r="E10">
-        <v>-0.02547153573195614</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.03883182173201501</v>
+      </c>
+      <c r="F10">
+        <v>-0.0584604327556777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.1041979657551187</v>
+        <v>0.08776999239031349</v>
       </c>
       <c r="C11">
-        <v>0.06663789440561264</v>
+        <v>-0.01106967514987672</v>
       </c>
       <c r="D11">
-        <v>0.05526328022017617</v>
+        <v>-0.1174335631501243</v>
       </c>
       <c r="E11">
-        <v>-0.03808742422607808</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.04759498080701792</v>
+      </c>
+      <c r="F11">
+        <v>0.01856741342072092</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.1117541698110711</v>
+        <v>0.09248262057369537</v>
       </c>
       <c r="C12">
-        <v>0.07140173680501403</v>
+        <v>-0.008489158900135562</v>
       </c>
       <c r="D12">
-        <v>0.05824484684322389</v>
+        <v>-0.1287183240772364</v>
       </c>
       <c r="E12">
-        <v>-0.03745798352501798</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.048397310175134</v>
+      </c>
+      <c r="F12">
+        <v>0.01684328891452203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.03996088896561067</v>
+        <v>0.04349251959190559</v>
       </c>
       <c r="C13">
-        <v>0.01823172959005143</v>
+        <v>-0.003889571080195828</v>
       </c>
       <c r="D13">
-        <v>-0.02445880971064311</v>
+        <v>-0.04799575653955549</v>
       </c>
       <c r="E13">
-        <v>0.01260309552154951</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.01317243561304495</v>
+      </c>
+      <c r="F13">
+        <v>0.006561108438619336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02714162283540098</v>
+        <v>0.02256555445028745</v>
       </c>
       <c r="C14">
-        <v>0.007634115758329801</v>
+        <v>-0.01398034444392847</v>
       </c>
       <c r="D14">
-        <v>0.005152937734042111</v>
+        <v>-0.03299944168300135</v>
       </c>
       <c r="E14">
-        <v>-0.009327474306125931</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.01736107970602983</v>
+      </c>
+      <c r="F14">
+        <v>0.01667593674726304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03025203467315225</v>
+        <v>0.03113836117550839</v>
       </c>
       <c r="C15">
-        <v>0.0267787370455984</v>
+        <v>-0.005136826986647836</v>
       </c>
       <c r="D15">
-        <v>-0.002944769911846376</v>
+        <v>-0.04513740221702252</v>
       </c>
       <c r="E15">
-        <v>-0.01060984001574104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.007405622541496803</v>
+      </c>
+      <c r="F15">
+        <v>0.02690617312488468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.1083046464407358</v>
+        <v>0.0734674679946978</v>
       </c>
       <c r="C16">
-        <v>0.04976283781759263</v>
+        <v>-0.002103257208165946</v>
       </c>
       <c r="D16">
-        <v>0.05731953601178642</v>
+        <v>-0.1259633693210367</v>
       </c>
       <c r="E16">
-        <v>-0.05452948071181628</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.06353869957977078</v>
+      </c>
+      <c r="F16">
+        <v>0.02032526675165233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,27 +1034,33 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.02632873237797989</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003789283497570756</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.02064559577246118</v>
       </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>0.004615637601266888</v>
+      </c>
+      <c r="F18">
+        <v>-0.01391693040966095</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1074,153 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06398640282869549</v>
+        <v>0.06017058135273948</v>
       </c>
       <c r="C20">
-        <v>0.03806658388445232</v>
+        <v>-0.0004968578972534119</v>
       </c>
       <c r="D20">
-        <v>0.05214725396554523</v>
+        <v>-0.07657364369968413</v>
       </c>
       <c r="E20">
-        <v>0.00156150988086643</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.0560955297848432</v>
+      </c>
+      <c r="F20">
+        <v>0.02319011782043131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.0220576180833416</v>
+        <v>0.03899658572134329</v>
       </c>
       <c r="C21">
-        <v>8.104399484496001e-05</v>
+        <v>-0.006461819341782482</v>
       </c>
       <c r="D21">
-        <v>0.006230336759322341</v>
+        <v>-0.03570968594281059</v>
       </c>
       <c r="E21">
-        <v>0.03156929569277455</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.008097639061613341</v>
+      </c>
+      <c r="F21">
+        <v>-0.02272820677305125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.03586280109334061</v>
+        <v>0.04469599140562044</v>
       </c>
       <c r="C22">
-        <v>-0.03908367201631036</v>
+        <v>-0.0004979646104806611</v>
       </c>
       <c r="D22">
-        <v>-0.02344752286312618</v>
+        <v>-0.002803207895819284</v>
       </c>
       <c r="E22">
-        <v>-0.03905192567110526</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.02625815797286321</v>
+      </c>
+      <c r="F22">
+        <v>-0.01384335752422762</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.03597714259759089</v>
+        <v>0.04472960672275466</v>
       </c>
       <c r="C23">
-        <v>-0.03893292722209638</v>
+        <v>-0.0005184839634195049</v>
       </c>
       <c r="D23">
-        <v>-0.02298766822685159</v>
+        <v>-0.002895316361466264</v>
       </c>
       <c r="E23">
-        <v>-0.04082809723711241</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.02656753338701135</v>
+      </c>
+      <c r="F23">
+        <v>-0.01331852565392313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.108155193620923</v>
+        <v>0.07963473399743261</v>
       </c>
       <c r="C24">
-        <v>0.05377398358706077</v>
+        <v>-0.002723853309916991</v>
       </c>
       <c r="D24">
-        <v>0.05556476223486793</v>
+        <v>-0.1206600598669025</v>
       </c>
       <c r="E24">
-        <v>-0.03465837814501796</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.0510138871371589</v>
+      </c>
+      <c r="F24">
+        <v>0.02123297247037921</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.113127079431468</v>
+        <v>0.08512211280319211</v>
       </c>
       <c r="C25">
-        <v>0.04990083339879337</v>
+        <v>-0.004953587453797298</v>
       </c>
       <c r="D25">
-        <v>0.05488112516340084</v>
+        <v>-0.1095440505995112</v>
       </c>
       <c r="E25">
-        <v>-0.04177049910425663</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.03366799590745319</v>
+      </c>
+      <c r="F25">
+        <v>0.02394394980026774</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.04771878732341014</v>
+        <v>0.05578973508464403</v>
       </c>
       <c r="C26">
-        <v>-0.009713923994318389</v>
+        <v>-0.014324688453464</v>
       </c>
       <c r="D26">
-        <v>0.02503904809813956</v>
+        <v>-0.04188396175190732</v>
       </c>
       <c r="E26">
-        <v>-0.01146769210839954</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.02581246727378392</v>
+      </c>
+      <c r="F26">
+        <v>-0.01147833986648979</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1234,193 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.04793749475448596</v>
+        <v>0.1424773222539666</v>
       </c>
       <c r="C28">
-        <v>-0.2850285566254746</v>
+        <v>-0.01816688015441568</v>
       </c>
       <c r="D28">
-        <v>-0.1194539697737835</v>
+        <v>0.2653708988487168</v>
       </c>
       <c r="E28">
-        <v>-0.05064341178587359</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.06808574105936668</v>
+      </c>
+      <c r="F28">
+        <v>0.0170205496581006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.03039126477268473</v>
+        <v>0.02663743169650688</v>
       </c>
       <c r="C29">
-        <v>0.004976507245187499</v>
+        <v>-0.008095416689767728</v>
       </c>
       <c r="D29">
-        <v>-0.007524258209520527</v>
+        <v>-0.03280001461252974</v>
       </c>
       <c r="E29">
-        <v>-0.007995865585594186</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.01132908402346318</v>
+      </c>
+      <c r="F29">
+        <v>-0.01321977473402475</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.1246317296776481</v>
+        <v>0.06186146747636657</v>
       </c>
       <c r="C30">
-        <v>0.06825601445399211</v>
+        <v>-0.004370522311911692</v>
       </c>
       <c r="D30">
-        <v>0.0177138351996598</v>
+        <v>-0.08548834183923361</v>
       </c>
       <c r="E30">
-        <v>-0.01154846128551761</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.02349495398340982</v>
+      </c>
+      <c r="F30">
+        <v>0.08967237055683258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03564164759256219</v>
+        <v>0.04917733621202537</v>
       </c>
       <c r="C31">
-        <v>0.01420492225251632</v>
+        <v>-0.01506513173012195</v>
       </c>
       <c r="D31">
-        <v>0.02088134818544468</v>
+        <v>-0.02592828574430578</v>
       </c>
       <c r="E31">
-        <v>-0.01817503630702181</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.02711542745664748</v>
+      </c>
+      <c r="F31">
+        <v>-0.005537741775767969</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.06070634627865099</v>
+        <v>0.04872754832101697</v>
       </c>
       <c r="C32">
-        <v>-0.003317693780778781</v>
+        <v>0.001274300805219805</v>
       </c>
       <c r="D32">
-        <v>0.02554232708638825</v>
+        <v>-0.03664248991533348</v>
       </c>
       <c r="E32">
-        <v>0.01094645484233095</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.02989939273392788</v>
+      </c>
+      <c r="F32">
+        <v>1.409300799436978e-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.1131323772120603</v>
+        <v>0.08951661644931884</v>
       </c>
       <c r="C33">
-        <v>0.0522276082638744</v>
+        <v>-0.008300861868341352</v>
       </c>
       <c r="D33">
-        <v>0.02210432802239493</v>
+        <v>-0.09813715122587544</v>
       </c>
       <c r="E33">
-        <v>-0.07037549585383281</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.04613767228153551</v>
+      </c>
+      <c r="F33">
+        <v>0.03710892007950042</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.09432275734349742</v>
+        <v>0.06810409822875818</v>
       </c>
       <c r="C34">
-        <v>0.03674541713796409</v>
+        <v>-0.01148378176808995</v>
       </c>
       <c r="D34">
-        <v>0.04782195395069052</v>
+        <v>-0.1055368962302224</v>
       </c>
       <c r="E34">
-        <v>-0.03374221570304625</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.03638491974260948</v>
+      </c>
+      <c r="F34">
+        <v>0.03258058391141559</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01429970844938006</v>
+        <v>0.02437562038637193</v>
       </c>
       <c r="C35">
-        <v>0.009006502627329327</v>
+        <v>-0.00239476503277219</v>
       </c>
       <c r="D35">
-        <v>-0.008988754948549295</v>
+        <v>-0.01250968842527253</v>
       </c>
       <c r="E35">
-        <v>-0.004300315244095361</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.01098527729478432</v>
+      </c>
+      <c r="F35">
+        <v>0.006035234700056531</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02887087455698536</v>
+        <v>0.0249721105295525</v>
       </c>
       <c r="C36">
-        <v>0.01910167802827734</v>
+        <v>-0.007293231530866796</v>
       </c>
       <c r="D36">
-        <v>-0.0003635137666133458</v>
+        <v>-0.03949973894520943</v>
       </c>
       <c r="E36">
-        <v>-0.0009434661508060386</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.0169396755095511</v>
+      </c>
+      <c r="F36">
+        <v>0.01246320802558316</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1434,93 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.005589026281278492</v>
+        <v>0.0015044642399718</v>
       </c>
       <c r="C38">
-        <v>-0.0006266726013314248</v>
+        <v>-0.0002235021732562824</v>
       </c>
       <c r="D38">
-        <v>-0.0008650456312508256</v>
+        <v>-0.0007134042054360442</v>
       </c>
       <c r="E38">
-        <v>0.0007638329685425232</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.001119559687605523</v>
+      </c>
+      <c r="F38">
+        <v>-0.001009656215281581</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1717987864153657</v>
+        <v>0.1071332716613297</v>
       </c>
       <c r="C39">
-        <v>0.1054555504161116</v>
+        <v>-0.01646579762363721</v>
       </c>
       <c r="D39">
-        <v>0.07336732017933437</v>
+        <v>-0.1533929424185456</v>
       </c>
       <c r="E39">
-        <v>-0.05973848313870543</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.0604413595494704</v>
+      </c>
+      <c r="F39">
+        <v>0.02229166019629007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.009275036353259379</v>
+        <v>0.03794255909876019</v>
       </c>
       <c r="C40">
-        <v>-0.002187146842872209</v>
+        <v>-0.007009335130179224</v>
       </c>
       <c r="D40">
-        <v>0.007459452688511565</v>
+        <v>-0.03292463821171004</v>
       </c>
       <c r="E40">
-        <v>0.01905263586978632</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.001558621620277253</v>
+      </c>
+      <c r="F40">
+        <v>-0.01593354864903739</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02135466720200911</v>
+        <v>0.02666645433754766</v>
       </c>
       <c r="C41">
-        <v>-0.01652668362649582</v>
+        <v>-0.006549340419102449</v>
       </c>
       <c r="D41">
-        <v>0.02408791445420787</v>
+        <v>-0.01075125498525017</v>
       </c>
       <c r="E41">
-        <v>-0.0078807687418729</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.01236582214944871</v>
+      </c>
+      <c r="F41">
+        <v>-0.008362341841256709</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1534,53 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.02922826092075895</v>
+        <v>0.04017146661383755</v>
       </c>
       <c r="C43">
-        <v>-0.01110314165013382</v>
+        <v>-0.006599233052984952</v>
       </c>
       <c r="D43">
-        <v>0.03288045516654903</v>
+        <v>-0.02046124814646184</v>
       </c>
       <c r="E43">
-        <v>-0.02845942671161811</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.02368294046678161</v>
+      </c>
+      <c r="F43">
+        <v>-0.01406568076557199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1385993342389036</v>
+        <v>0.07683905432885403</v>
       </c>
       <c r="C44">
-        <v>0.0660725908276809</v>
+        <v>-0.02076525541620877</v>
       </c>
       <c r="D44">
-        <v>0.02133017717805085</v>
+        <v>-0.09855288697714062</v>
       </c>
       <c r="E44">
-        <v>-0.02960681728443656</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.07397636356871568</v>
+      </c>
+      <c r="F44">
+        <v>0.1665674403044587</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,197 +1594,233 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.01303135929092115</v>
+        <v>0.02379674917572167</v>
       </c>
       <c r="C46">
-        <v>-0.01450176690519928</v>
+        <v>-0.003710351798421164</v>
       </c>
       <c r="D46">
-        <v>0.01064665689806529</v>
+        <v>-0.01180132396155929</v>
       </c>
       <c r="E46">
-        <v>-0.02191341984351302</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.02256480248505995</v>
+      </c>
+      <c r="F46">
+        <v>-0.0005809982335034134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.04471694344863977</v>
+        <v>0.0508206725836304</v>
       </c>
       <c r="C47">
-        <v>-0.007543741902327107</v>
+        <v>-0.003339504058072536</v>
       </c>
       <c r="D47">
-        <v>0.01114018773188011</v>
+        <v>-0.01317912763435731</v>
       </c>
       <c r="E47">
-        <v>-0.006620802898758354</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.02237892625312955</v>
+      </c>
+      <c r="F47">
+        <v>-0.03899909330193503</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04753280235784492</v>
+        <v>0.04821626467739992</v>
       </c>
       <c r="C48">
-        <v>0.02036287452569024</v>
+        <v>-0.002455466570494795</v>
       </c>
       <c r="D48">
-        <v>-0.002605252434815684</v>
+        <v>-0.05082740011356875</v>
       </c>
       <c r="E48">
-        <v>-0.01061047249932594</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.005102629381392473</v>
+      </c>
+      <c r="F48">
+        <v>0.003638571545489294</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2185670579420069</v>
+        <v>0.202677355138115</v>
       </c>
       <c r="C49">
-        <v>-0.05179940911047551</v>
+        <v>-0.01817343511341254</v>
       </c>
       <c r="D49">
-        <v>0.04650836630400156</v>
+        <v>0.01238361924123248</v>
       </c>
       <c r="E49">
-        <v>0.006278561711928909</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.03272453056587683</v>
+      </c>
+      <c r="F49">
+        <v>0.02993238231811418</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04271259543134403</v>
+        <v>0.04910880058245191</v>
       </c>
       <c r="C50">
-        <v>0.01077634098797248</v>
+        <v>-0.01110956194643097</v>
       </c>
       <c r="D50">
-        <v>0.02836031443033049</v>
+        <v>-0.02560617530622302</v>
       </c>
       <c r="E50">
-        <v>-0.01114372768553708</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.02940220861571689</v>
+      </c>
+      <c r="F50">
+        <v>0.00666666715450261</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.007849675621072945</v>
+        <v>0.00223443521643276</v>
       </c>
       <c r="C51">
-        <v>-0.0139838345956501</v>
+        <v>-0.0005705453316313304</v>
       </c>
       <c r="D51">
-        <v>-0.005141390413955646</v>
+        <v>0.002405780462383183</v>
       </c>
       <c r="E51">
-        <v>-0.0147985930888645</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>1.76953912301053e-05</v>
+      </c>
+      <c r="F51">
+        <v>0.003839024485704516</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1411706494016861</v>
+        <v>0.1448690573313793</v>
       </c>
       <c r="C52">
-        <v>0.06604526292453765</v>
+        <v>-0.0141361705176264</v>
       </c>
       <c r="D52">
-        <v>0.0002563066925295094</v>
+        <v>-0.04849833934764471</v>
       </c>
       <c r="E52">
-        <v>0.01548998721402438</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>-0.02409666617236083</v>
+      </c>
+      <c r="F52">
+        <v>0.04079115813621206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1563982123431406</v>
+        <v>0.1733412829264682</v>
       </c>
       <c r="C53">
-        <v>-0.01028896111493915</v>
+        <v>-0.01739064865276286</v>
       </c>
       <c r="D53">
-        <v>-0.008575343139072425</v>
+        <v>-0.006837888568762026</v>
       </c>
       <c r="E53">
-        <v>0.01461058674243411</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03500599114382702</v>
+      </c>
+      <c r="F53">
+        <v>0.07326134491387047</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.05102532522181871</v>
+        <v>0.02203583261902659</v>
       </c>
       <c r="C54">
-        <v>0.002524449133069031</v>
+        <v>-0.01242194075327443</v>
       </c>
       <c r="D54">
-        <v>0.01073257110998913</v>
+        <v>-0.03305397023230011</v>
       </c>
       <c r="E54">
-        <v>-0.008078428763534901</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01546106551730084</v>
+      </c>
+      <c r="F54">
+        <v>-0.004419918405963326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.0902483785447302</v>
+        <v>0.1142336905035907</v>
       </c>
       <c r="C55">
-        <v>0.02254823620464542</v>
+        <v>-0.0157592469947253</v>
       </c>
       <c r="D55">
-        <v>-0.01238274922813733</v>
+        <v>-0.01023432055918612</v>
       </c>
       <c r="E55">
-        <v>-0.02763426603913793</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.03097487629963303</v>
+      </c>
+      <c r="F55">
+        <v>0.0463600790686657</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1598790197554326</v>
+        <v>0.1771999916432656</v>
       </c>
       <c r="C56">
-        <v>0.006049621908860452</v>
+        <v>-0.01468014110418533</v>
       </c>
       <c r="D56">
-        <v>0.01568727740734008</v>
+        <v>-0.004936287794942019</v>
       </c>
       <c r="E56">
-        <v>-0.01171508517951422</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.04079566122948026</v>
+      </c>
+      <c r="F56">
+        <v>0.05084176947845969</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,758 +1834,893 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04131616597803006</v>
+        <v>0.04654443165482015</v>
       </c>
       <c r="C58">
-        <v>0.01295386887155635</v>
+        <v>-0.001020577922078162</v>
       </c>
       <c r="D58">
-        <v>0.01789888399624068</v>
+        <v>-0.06797928674726848</v>
       </c>
       <c r="E58">
-        <v>0.02867164211500844</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.02417958367807232</v>
+      </c>
+      <c r="F58">
+        <v>-0.04167932786664613</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1170914250550607</v>
+        <v>0.1715077521910369</v>
       </c>
       <c r="C59">
-        <v>-0.2708320675229095</v>
+        <v>-0.01866417388227447</v>
       </c>
       <c r="D59">
-        <v>-0.1092852836686017</v>
+        <v>0.2224175839375345</v>
       </c>
       <c r="E59">
-        <v>-0.05873763746036149</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.04680680819436175</v>
+      </c>
+      <c r="F59">
+        <v>-0.03216553518573496</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2757893110253138</v>
+        <v>0.234588172278988</v>
       </c>
       <c r="C60">
-        <v>0.02734755684160293</v>
+        <v>0.003679866048331468</v>
       </c>
       <c r="D60">
-        <v>0.006178102256099108</v>
+        <v>-0.04127039402701516</v>
       </c>
       <c r="E60">
-        <v>0.06580812481049363</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.01089630066521827</v>
+      </c>
+      <c r="F60">
+        <v>-0.01745391412981078</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1248763544683056</v>
+        <v>0.0831196660748359</v>
       </c>
       <c r="C61">
-        <v>0.05766362149955052</v>
+        <v>-0.01234452227764778</v>
       </c>
       <c r="D61">
-        <v>0.02217045550448133</v>
+        <v>-0.1163899741971595</v>
       </c>
       <c r="E61">
-        <v>-0.04083724570446474</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.03970233371274856</v>
+      </c>
+      <c r="F61">
+        <v>0.008447969322321265</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1692603173988915</v>
+        <v>0.1692097314246648</v>
       </c>
       <c r="C62">
-        <v>0.01788956666883399</v>
+        <v>-0.01827298858956331</v>
       </c>
       <c r="D62">
-        <v>0.01442176670062923</v>
+        <v>-0.01010607253798199</v>
       </c>
       <c r="E62">
-        <v>0.003987600304244368</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>-0.03755305894135364</v>
+      </c>
+      <c r="F62">
+        <v>0.03328271344832687</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.05541510529907421</v>
+        <v>0.04351414386408611</v>
       </c>
       <c r="C63">
-        <v>0.02338105535675395</v>
+        <v>-0.002400122016425857</v>
       </c>
       <c r="D63">
-        <v>0.002044924172684811</v>
+        <v>-0.05659445185726444</v>
       </c>
       <c r="E63">
-        <v>-0.02448005393924552</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.02088088702910706</v>
+      </c>
+      <c r="F63">
+        <v>0.004885122015739211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09981480061507821</v>
+        <v>0.1104339405372799</v>
       </c>
       <c r="C64">
-        <v>0.0159150622729971</v>
+        <v>-0.01128728457879618</v>
       </c>
       <c r="D64">
-        <v>0.0148870639496327</v>
+        <v>-0.04208459038508125</v>
       </c>
       <c r="E64">
-        <v>-0.006497935877778175</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02131827155645649</v>
+      </c>
+      <c r="F64">
+        <v>0.02845252896861808</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1188969281255872</v>
+        <v>0.1473328323487842</v>
       </c>
       <c r="C65">
-        <v>-0.0004068413254125569</v>
+        <v>-0.03159893375482235</v>
       </c>
       <c r="D65">
-        <v>-0.004854645709695874</v>
+        <v>0.04198949277933089</v>
       </c>
       <c r="E65">
-        <v>0.001992199808577641</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.001986148861485667</v>
+      </c>
+      <c r="F65">
+        <v>0.04572512254812794</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.198474562982608</v>
+        <v>0.1277341907794094</v>
       </c>
       <c r="C66">
-        <v>0.1006840722043679</v>
+        <v>-0.01435146769922296</v>
       </c>
       <c r="D66">
-        <v>0.08158409902045359</v>
+        <v>-0.1428741641962966</v>
       </c>
       <c r="E66">
-        <v>-0.06585388654842761</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.0679532660137705</v>
+      </c>
+      <c r="F66">
+        <v>0.02722217849826223</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.07458666026507609</v>
+        <v>0.06337254635191043</v>
       </c>
       <c r="C67">
-        <v>0.01337287932048096</v>
+        <v>-0.002840766541208403</v>
       </c>
       <c r="D67">
-        <v>-0.01236900441070449</v>
+        <v>-0.05554621828495988</v>
       </c>
       <c r="E67">
-        <v>-0.09317500506883497</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.01676566317929472</v>
+      </c>
+      <c r="F67">
+        <v>-0.03946803174391633</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.04570895433412286</v>
+        <v>0.1170736494806463</v>
       </c>
       <c r="C68">
-        <v>-0.257790335277255</v>
+        <v>-0.02808973634676222</v>
       </c>
       <c r="D68">
-        <v>-0.1086972435098097</v>
+        <v>0.2600223255754037</v>
       </c>
       <c r="E68">
-        <v>-0.03967453219217197</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.08512357885522825</v>
+      </c>
+      <c r="F68">
+        <v>0.01663603409175833</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03355107021239159</v>
+        <v>0.03924515697378079</v>
       </c>
       <c r="C69">
-        <v>-0.006288632647537668</v>
+        <v>-0.0009257289170663574</v>
       </c>
       <c r="D69">
-        <v>-0.01874420045627864</v>
+        <v>-0.008218806528502272</v>
       </c>
       <c r="E69">
-        <v>-0.02872310888011724</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02390509483726894</v>
+      </c>
+      <c r="F69">
+        <v>-0.005573984815077731</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.03175549879260105</v>
+        <v>0.0628654128551079</v>
       </c>
       <c r="C70">
-        <v>-0.005572659093808493</v>
+        <v>0.02874474233732529</v>
       </c>
       <c r="D70">
-        <v>-0.02867521315263246</v>
+        <v>-0.02867683624077195</v>
       </c>
       <c r="E70">
-        <v>-0.04065367445144033</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>0.04953613362123517</v>
+      </c>
+      <c r="F70">
+        <v>-0.2267977983689293</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.05549451203939537</v>
+        <v>0.1364189298007111</v>
       </c>
       <c r="C71">
-        <v>-0.2746289365954374</v>
+        <v>-0.03275967377849939</v>
       </c>
       <c r="D71">
-        <v>-0.1176403304342296</v>
+        <v>0.2739390364511509</v>
       </c>
       <c r="E71">
-        <v>-0.05257262598958638</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.09468824178984628</v>
+      </c>
+      <c r="F71">
+        <v>0.02072020093592249</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1305903427783444</v>
+        <v>0.1416380025033306</v>
       </c>
       <c r="C72">
-        <v>-0.03795565011930586</v>
+        <v>-0.02514876139666581</v>
       </c>
       <c r="D72">
-        <v>0.00835493459140659</v>
+        <v>-0.0006853024725884138</v>
       </c>
       <c r="E72">
-        <v>-0.01267518315133333</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.04210575688375568</v>
+      </c>
+      <c r="F72">
+        <v>0.03107544151298322</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2153239436650212</v>
+        <v>0.2010546365854746</v>
       </c>
       <c r="C73">
-        <v>-0.03532671455112144</v>
+        <v>-0.01206541736564526</v>
       </c>
       <c r="D73">
-        <v>0.0127127586967743</v>
+        <v>-0.01555993055367309</v>
       </c>
       <c r="E73">
-        <v>-0.0302004066585121</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.06643741906393218</v>
+      </c>
+      <c r="F73">
+        <v>0.02635294720496966</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1134952196154343</v>
+        <v>0.0944438611121084</v>
       </c>
       <c r="C74">
-        <v>0.005475682160021878</v>
+        <v>-0.01242997525908494</v>
       </c>
       <c r="D74">
-        <v>0.02597104962001022</v>
+        <v>-0.019196152106863</v>
       </c>
       <c r="E74">
-        <v>-0.0007391818308539622</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.0487187489516145</v>
+      </c>
+      <c r="F74">
+        <v>0.05207999857343767</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1380499773968088</v>
+        <v>0.1284904909247441</v>
       </c>
       <c r="C75">
-        <v>0.01905304813853382</v>
+        <v>-0.02691671091365662</v>
       </c>
       <c r="D75">
-        <v>0.03592047270593148</v>
+        <v>-0.03220594504590475</v>
       </c>
       <c r="E75">
-        <v>-0.007093741437846906</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.06093238457409102</v>
+      </c>
+      <c r="F75">
+        <v>0.01737031354153004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.01039765198807143</v>
+        <v>0.002697196125422001</v>
       </c>
       <c r="C76">
-        <v>-0.01252095384020841</v>
+        <v>-0.0006933136993569664</v>
       </c>
       <c r="D76">
-        <v>-0.004719172408077069</v>
+        <v>0.001925913791711131</v>
       </c>
       <c r="E76">
-        <v>-0.01034231752281327</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.0003449453513385652</v>
+      </c>
+      <c r="F76">
+        <v>0.003565492702763996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.0950491460427134</v>
+        <v>0.08019366473997806</v>
       </c>
       <c r="C77">
-        <v>0.0920611990292097</v>
+        <v>-0.008285248103502679</v>
       </c>
       <c r="D77">
-        <v>0.05033124026264654</v>
+        <v>-0.1202968829241788</v>
       </c>
       <c r="E77">
-        <v>0.03346397109880198</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04056383448677592</v>
+      </c>
+      <c r="F77">
+        <v>0.03140959229094517</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1243818586658812</v>
+        <v>0.1034539064545067</v>
       </c>
       <c r="C78">
-        <v>-0.005166017434145942</v>
+        <v>-0.03967330270759339</v>
       </c>
       <c r="D78">
-        <v>0.1242429551827481</v>
+        <v>-0.1147032435646652</v>
       </c>
       <c r="E78">
-        <v>-0.2341539035668998</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.07888718670508491</v>
+      </c>
+      <c r="F78">
+        <v>0.05714693224704378</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1459892971036487</v>
+        <v>0.1641138576870795</v>
       </c>
       <c r="C79">
-        <v>0.005882398502732668</v>
+        <v>-0.02098210710402836</v>
       </c>
       <c r="D79">
-        <v>0.05049816646098738</v>
+        <v>-0.01842570164893967</v>
       </c>
       <c r="E79">
-        <v>0.0168043312470535</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.05008997119673091</v>
+      </c>
+      <c r="F79">
+        <v>0.008304718138484407</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.09096107713651463</v>
+        <v>0.08098289571312568</v>
       </c>
       <c r="C80">
-        <v>0.04870672370827023</v>
+        <v>0.001068631538645861</v>
       </c>
       <c r="D80">
-        <v>-0.00126300654360027</v>
+        <v>-0.05822602739026395</v>
       </c>
       <c r="E80">
-        <v>-0.05393420383245374</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.03500178727261436</v>
+      </c>
+      <c r="F80">
+        <v>-0.02988715307025892</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.158892823097325</v>
+        <v>0.122857042602496</v>
       </c>
       <c r="C81">
-        <v>0.02835209594700201</v>
+        <v>-0.03087120286089923</v>
       </c>
       <c r="D81">
-        <v>0.04455596832687093</v>
+        <v>-0.01632617455660303</v>
       </c>
       <c r="E81">
-        <v>-0.02404562667055738</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.06094298386963252</v>
+      </c>
+      <c r="F81">
+        <v>0.01282818309122566</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1757645756073519</v>
+        <v>0.1645258976280931</v>
       </c>
       <c r="C82">
-        <v>0.03502837039417271</v>
+        <v>-0.02313249128078873</v>
       </c>
       <c r="D82">
-        <v>0.006585164268575167</v>
+        <v>-0.0070262212754562</v>
       </c>
       <c r="E82">
-        <v>-0.0128408244866001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.03380894545038721</v>
+      </c>
+      <c r="F82">
+        <v>0.07507621036706318</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.08197779070597352</v>
+        <v>0.06170012667365409</v>
       </c>
       <c r="C83">
-        <v>0.009326086710803365</v>
+        <v>-0.003184327948689398</v>
       </c>
       <c r="D83">
-        <v>-0.01067351824281492</v>
+        <v>-0.04903980891064717</v>
       </c>
       <c r="E83">
-        <v>0.06607568871387756</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.005133255865854692</v>
+      </c>
+      <c r="F83">
+        <v>-0.03939909281326076</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.07368140523744229</v>
+        <v>0.05829188650371375</v>
       </c>
       <c r="C84">
-        <v>0.01688011060970594</v>
+        <v>-0.01085415183677639</v>
       </c>
       <c r="D84">
-        <v>0.005946033694568075</v>
+        <v>-0.06595125612348962</v>
       </c>
       <c r="E84">
-        <v>-0.001590102852834766</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.006069462328222065</v>
+      </c>
+      <c r="F84">
+        <v>0.008493611822238609</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1236287603909259</v>
+        <v>0.1379722441869053</v>
       </c>
       <c r="C85">
-        <v>-0.005749279334129128</v>
+        <v>-0.02668489684402209</v>
       </c>
       <c r="D85">
-        <v>0.01220105000907974</v>
+        <v>-0.01236878202682007</v>
       </c>
       <c r="E85">
-        <v>0.01134099900045283</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.0413437082895713</v>
+      </c>
+      <c r="F85">
+        <v>0.0468718391523169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1090592369127529</v>
+        <v>0.09701778256325748</v>
       </c>
       <c r="C86">
-        <v>-0.1629978644227837</v>
+        <v>0.005911293105960204</v>
       </c>
       <c r="D86">
-        <v>0.2627988676962162</v>
+        <v>-0.03800464850622327</v>
       </c>
       <c r="E86">
-        <v>0.8864909825582402</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.161575049826274</v>
+      </c>
+      <c r="F86">
+        <v>-0.9019762620935406</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1144402371389898</v>
+        <v>0.09576538041590549</v>
       </c>
       <c r="C87">
-        <v>0.08848026340303881</v>
+        <v>-0.0217054400422176</v>
       </c>
       <c r="D87">
-        <v>-0.04390278923264924</v>
+        <v>-0.09250469691680221</v>
       </c>
       <c r="E87">
-        <v>0.01095429225322916</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.05326705320802056</v>
+      </c>
+      <c r="F87">
+        <v>0.0672324101833041</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05417087897435955</v>
+        <v>0.06090027907370749</v>
       </c>
       <c r="C88">
-        <v>0.02396942336339901</v>
+        <v>-0.002419277873808022</v>
       </c>
       <c r="D88">
-        <v>0.0354361272575725</v>
+        <v>-0.05032284518272709</v>
       </c>
       <c r="E88">
-        <v>-0.0393523935243929</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02580490093448127</v>
+      </c>
+      <c r="F88">
+        <v>0.0107445641826647</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.08526393770421124</v>
+        <v>0.134921480030679</v>
       </c>
       <c r="C89">
-        <v>-0.3479521253389897</v>
+        <v>-0.01036974134961522</v>
       </c>
       <c r="D89">
-        <v>-0.1481250205415897</v>
+        <v>0.2514342859959488</v>
       </c>
       <c r="E89">
-        <v>-0.02512053287123638</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.08888216299623537</v>
+      </c>
+      <c r="F89">
+        <v>0.002548566924746048</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.06086512343188445</v>
+        <v>0.1483873936870987</v>
       </c>
       <c r="C90">
-        <v>-0.2822974734881138</v>
+        <v>-0.02853315766497633</v>
       </c>
       <c r="D90">
-        <v>-0.1160482139497375</v>
+        <v>0.2669226578726755</v>
       </c>
       <c r="E90">
-        <v>-0.03718617800431936</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.1092449071217925</v>
+      </c>
+      <c r="F90">
+        <v>0.007959180918960491</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.09556697788069442</v>
+        <v>0.1195829447782787</v>
       </c>
       <c r="C91">
-        <v>0.006985434669175005</v>
+        <v>-0.01744317205128687</v>
       </c>
       <c r="D91">
-        <v>0.02337936045441752</v>
+        <v>0.01058139735851828</v>
       </c>
       <c r="E91">
-        <v>0.01403996627544137</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.05772397686096984</v>
+      </c>
+      <c r="F91">
+        <v>-0.009547816829084812</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.07640694667483823</v>
+        <v>0.1481702136019907</v>
       </c>
       <c r="C92">
-        <v>-0.3078199576125215</v>
+        <v>-0.02050821708016901</v>
       </c>
       <c r="D92">
-        <v>-0.1502324501118814</v>
+        <v>0.2912753339177763</v>
       </c>
       <c r="E92">
-        <v>-0.02220290738499417</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.1038015152232602</v>
+      </c>
+      <c r="F92">
+        <v>-0.0008816111910472331</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.0650707534072264</v>
+        <v>0.1515151705182515</v>
       </c>
       <c r="C93">
-        <v>-0.3096250690711446</v>
+        <v>-0.02460487574143204</v>
       </c>
       <c r="D93">
-        <v>-0.1263463130723031</v>
+        <v>0.2661764217473513</v>
       </c>
       <c r="E93">
-        <v>-0.02995450737267883</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.07609427622519846</v>
+      </c>
+      <c r="F93">
+        <v>0.009085972066821973</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1614290388878435</v>
+        <v>0.1318961465786099</v>
       </c>
       <c r="C94">
-        <v>0.0149756364938084</v>
+        <v>-0.02389057524475086</v>
       </c>
       <c r="D94">
-        <v>0.0346866989858283</v>
+        <v>-0.04378485548070218</v>
       </c>
       <c r="E94">
-        <v>-0.06161024662841217</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.06113520132978336</v>
+      </c>
+      <c r="F94">
+        <v>0.03393927506863741</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.130974488739036</v>
+        <v>0.1256745515538508</v>
       </c>
       <c r="C95">
-        <v>0.03295829706640447</v>
+        <v>-0.004456570620538992</v>
       </c>
       <c r="D95">
-        <v>0.04759607221744642</v>
+        <v>-0.09355354511091769</v>
       </c>
       <c r="E95">
-        <v>-0.04160033702373443</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.04637685750345399</v>
+      </c>
+      <c r="F95">
+        <v>-0.01198459853668282</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.01369023297151206</v>
+        <v>0.100721048480896</v>
       </c>
       <c r="C96">
-        <v>0.008142444991844237</v>
+        <v>0.9884512975533831</v>
       </c>
       <c r="D96">
-        <v>0.007729346226352395</v>
+        <v>0.0386862051948843</v>
       </c>
       <c r="E96">
-        <v>0.00333517623369434</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>-0.05841595054044891</v>
+      </c>
+      <c r="F96">
+        <v>0.04201482635446688</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1736184245362788</v>
+        <v>0.1898115322039801</v>
       </c>
       <c r="C97">
-        <v>-0.04335068040580364</v>
+        <v>0.009475456293466715</v>
       </c>
       <c r="D97">
-        <v>0.03831948526835358</v>
+        <v>0.01504624168013758</v>
       </c>
       <c r="E97">
-        <v>-0.02416802835038981</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.00845938578676521</v>
+      </c>
+      <c r="F97">
+        <v>-0.09777977509731982</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2107229382449655</v>
+        <v>0.2061601532115576</v>
       </c>
       <c r="C98">
-        <v>-0.06638840657071134</v>
+        <v>-0.007371160728859204</v>
       </c>
       <c r="D98">
-        <v>-0.1152689635979334</v>
+        <v>-0.008351703650154396</v>
       </c>
       <c r="E98">
-        <v>0.1208243979501039</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.09615367213162349</v>
+      </c>
+      <c r="F98">
+        <v>-0.09534310362280188</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05330791539385559</v>
+        <v>0.05608344145289535</v>
       </c>
       <c r="C99">
-        <v>-0.003992598096140833</v>
+        <v>0.004411833339903537</v>
       </c>
       <c r="D99">
-        <v>0.02584819245225122</v>
+        <v>-0.03706273381567989</v>
       </c>
       <c r="E99">
-        <v>-0.05221147419775478</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>-0.02415279656346696</v>
+      </c>
+      <c r="F99">
+        <v>-0.0016631599942422</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1256484395363053</v>
+        <v>0.124604421938717</v>
       </c>
       <c r="C100">
-        <v>0.3706139558088323</v>
+        <v>0.05311578249757605</v>
       </c>
       <c r="D100">
-        <v>-0.8409354199056913</v>
+        <v>-0.3444118918470313</v>
       </c>
       <c r="E100">
-        <v>0.2343835048968181</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>0.8943864242413894</v>
+      </c>
+      <c r="F100">
+        <v>-0.08455593086300289</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.03033148047515526</v>
+        <v>0.02656046497937893</v>
       </c>
       <c r="C101">
-        <v>0.005047880673254788</v>
+        <v>-0.008103140999328174</v>
       </c>
       <c r="D101">
-        <v>-0.007432216489769962</v>
+        <v>-0.03250040119935348</v>
       </c>
       <c r="E101">
-        <v>-0.00910799924413485</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.0107262586863431</v>
+      </c>
+      <c r="F101">
+        <v>-0.01469309084852735</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +2734,13 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +2754,13 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +2772,9 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
